--- a/templates/QA-Automation/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/QA-Automation/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
   <si>
     <t>API Mode</t>
   </si>
@@ -429,6 +429,60 @@
   </si>
   <si>
     <t>RMA-C084-1-3</t>
+  </si>
+  <si>
+    <t>RMA-TAFS-001</t>
+  </si>
+  <si>
+    <t>RMA-TAFS-002</t>
+  </si>
+  <si>
+    <t>RMA-TAFS-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK3DAAU</t>
+  </si>
+  <si>
+    <t>RMA-TAFS-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK3EAAU</t>
+  </si>
+  <si>
+    <t>RMA-TAFS-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK3FAAU</t>
+  </si>
+  <si>
+    <t>RMA-TAFS-1-3</t>
+  </si>
+  <si>
+    <t>RMA-CL8I-001</t>
+  </si>
+  <si>
+    <t>RMA-CL8I-002</t>
+  </si>
+  <si>
+    <t>RMA-CL8I-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK54AAE</t>
+  </si>
+  <si>
+    <t>RMA-CL8I-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK55AAE</t>
+  </si>
+  <si>
+    <t>RMA-CL8I-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK56AAE</t>
+  </si>
+  <si>
+    <t>RMA-CL8I-1-3</t>
   </si>
 </sst>
 </file>
@@ -438,7 +492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="111" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +512,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -972,7 +1170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1106,11 +1304,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1196,8 +1430,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="86" fillId="0" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="110" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1985,11 +2243,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.15234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.40234375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.19140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.48828125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2039,10 +2297,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -2051,7 +2309,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2068,10 +2326,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -2080,7 +2338,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2097,10 +2355,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -2109,7 +2367,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/templates/QA-Automation/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/QA-Automation/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="156">
   <si>
     <t>API Mode</t>
   </si>
@@ -483,6 +483,33 @@
   </si>
   <si>
     <t>RMA-CL8I-1-3</t>
+  </si>
+  <si>
+    <t>RMA-U8BT-001</t>
+  </si>
+  <si>
+    <t>RMA-U8BT-002</t>
+  </si>
+  <si>
+    <t>RMA-U8BT-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK6VAAU</t>
+  </si>
+  <si>
+    <t>RMA-U8BT-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK6WAAU</t>
+  </si>
+  <si>
+    <t>RMA-U8BT-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK6XAAU</t>
+  </si>
+  <si>
+    <t>RMA-U8BT-1-3</t>
   </si>
 </sst>
 </file>
@@ -492,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="111" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +539,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1170,7 +1269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1340,11 +1439,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1454,8 +1571,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="110" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="122" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2243,11 +2372,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.40234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.48828125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.66796875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2297,10 +2426,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -2309,7 +2438,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2326,10 +2455,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -2338,7 +2467,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2355,10 +2484,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -2367,7 +2496,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/templates/QA-Automation/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/QA-Automation/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="228">
   <si>
     <t>API Mode</t>
   </si>
@@ -510,6 +510,222 @@
   </si>
   <si>
     <t>RMA-U8BT-1-3</t>
+  </si>
+  <si>
+    <t>RMA-9N0Z-001</t>
+  </si>
+  <si>
+    <t>RMA-9N0Z-002</t>
+  </si>
+  <si>
+    <t>RMA-9N0Z-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKB7AAM</t>
+  </si>
+  <si>
+    <t>RMA-9N0Z-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKB8AAM</t>
+  </si>
+  <si>
+    <t>RMA-9N0Z-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKB9AAM</t>
+  </si>
+  <si>
+    <t>RMA-9N0Z-1-3</t>
+  </si>
+  <si>
+    <t>RMA-IXTY-001</t>
+  </si>
+  <si>
+    <t>RMA-IXTY-002</t>
+  </si>
+  <si>
+    <t>RMA-IXTY-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBCAA2</t>
+  </si>
+  <si>
+    <t>RMA-IXTY-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBDAA2</t>
+  </si>
+  <si>
+    <t>RMA-IXTY-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBEAA2</t>
+  </si>
+  <si>
+    <t>RMA-IXTY-1-3</t>
+  </si>
+  <si>
+    <t>RMA-RG1J-001</t>
+  </si>
+  <si>
+    <t>RMA-RG1J-002</t>
+  </si>
+  <si>
+    <t>RMA-RG1J-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBHAA2</t>
+  </si>
+  <si>
+    <t>RMA-RG1J-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBIAA2</t>
+  </si>
+  <si>
+    <t>RMA-RG1J-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBJAA2</t>
+  </si>
+  <si>
+    <t>RMA-RG1J-1-3</t>
+  </si>
+  <si>
+    <t>RMA-MUE6-001</t>
+  </si>
+  <si>
+    <t>RMA-MUE6-002</t>
+  </si>
+  <si>
+    <t>RMA-MUE6-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBMAA2</t>
+  </si>
+  <si>
+    <t>RMA-MUE6-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBNAA2</t>
+  </si>
+  <si>
+    <t>RMA-MUE6-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBOAA2</t>
+  </si>
+  <si>
+    <t>RMA-MUE6-1-3</t>
+  </si>
+  <si>
+    <t>RMA-NSZ1-001</t>
+  </si>
+  <si>
+    <t>RMA-NSZ1-002</t>
+  </si>
+  <si>
+    <t>RMA-NSZ1-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBRAA2</t>
+  </si>
+  <si>
+    <t>RMA-NSZ1-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBSAA2</t>
+  </si>
+  <si>
+    <t>RMA-NSZ1-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBTAA2</t>
+  </si>
+  <si>
+    <t>RMA-NSZ1-1-3</t>
+  </si>
+  <si>
+    <t>RMA-34NC-001</t>
+  </si>
+  <si>
+    <t>RMA-34NC-002</t>
+  </si>
+  <si>
+    <t>RMA-34NC-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBWAA2</t>
+  </si>
+  <si>
+    <t>RMA-34NC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBXAA2</t>
+  </si>
+  <si>
+    <t>RMA-34NC-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBYAA2</t>
+  </si>
+  <si>
+    <t>RMA-34NC-1-3</t>
+  </si>
+  <si>
+    <t>RMA-5UIP-001</t>
+  </si>
+  <si>
+    <t>RMA-5UIP-002</t>
+  </si>
+  <si>
+    <t>RMA-5UIP-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBbAAM</t>
+  </si>
+  <si>
+    <t>RMA-5UIP-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBcAAM</t>
+  </si>
+  <si>
+    <t>RMA-5UIP-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBdAAM</t>
+  </si>
+  <si>
+    <t>RMA-5UIP-1-3</t>
+  </si>
+  <si>
+    <t>RMA-DBXX-001</t>
+  </si>
+  <si>
+    <t>RMA-DBXX-002</t>
+  </si>
+  <si>
+    <t>RMA-DBXX-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBgAAM</t>
+  </si>
+  <si>
+    <t>RMA-DBXX-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBhAAM</t>
+  </si>
+  <si>
+    <t>RMA-DBXX-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBiAAM</t>
+  </si>
+  <si>
+    <t>RMA-DBXX-1-3</t>
   </si>
 </sst>
 </file>
@@ -519,7 +735,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +755,582 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1269,7 +2061,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -1457,11 +2249,155 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="219">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1583,8 +2519,104 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="122" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="218" fillId="0" borderId="108" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2372,11 +3404,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.46875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.66796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.41796875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2426,10 +3458,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -2438,7 +3470,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2455,10 +3487,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -2467,7 +3499,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2484,10 +3516,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -2496,7 +3528,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
